--- a/output/raw_data/cpi_US_yearly.xlsx
+++ b/output/raw_data/cpi_US_yearly.xlsx
@@ -411,293 +411,293 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B2" s="3">
-        <v>45804</v>
+        <v>39889</v>
       </c>
       <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B3" s="3">
-        <v>39889</v>
+        <v>39917</v>
       </c>
       <c r="C3">
+        <v>-0.4</v>
+      </c>
+      <c r="D3">
         <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B4" s="3">
-        <v>39917</v>
+        <v>39948</v>
       </c>
       <c r="C4">
+        <v>-0.7</v>
+      </c>
+      <c r="D4">
         <v>-0.4</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B5" s="3">
-        <v>39948</v>
+        <v>39978</v>
       </c>
       <c r="C5">
+        <v>-1.3</v>
+      </c>
+      <c r="D5">
         <v>-0.7</v>
-      </c>
-      <c r="D5">
-        <v>-0.4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B6" s="3">
-        <v>39978</v>
+        <v>40009</v>
       </c>
       <c r="C6">
+        <v>-1.4</v>
+      </c>
+      <c r="D6">
         <v>-1.3</v>
-      </c>
-      <c r="D6">
-        <v>-0.7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B7" s="3">
-        <v>40009</v>
+        <v>40039</v>
       </c>
       <c r="C7">
+        <v>-2.1</v>
+      </c>
+      <c r="D7">
         <v>-1.4</v>
-      </c>
-      <c r="D7">
-        <v>-1.3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B8" s="3">
-        <v>40039</v>
+        <v>40070</v>
       </c>
       <c r="C8">
+        <v>-1.5</v>
+      </c>
+      <c r="D8">
         <v>-2.1</v>
-      </c>
-      <c r="D8">
-        <v>-1.4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B9" s="3">
-        <v>40070</v>
+        <v>40101</v>
       </c>
       <c r="C9">
+        <v>-1.3</v>
+      </c>
+      <c r="D9">
         <v>-1.5</v>
-      </c>
-      <c r="D9">
-        <v>-2.1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B10" s="3">
-        <v>40101</v>
+        <v>40131</v>
       </c>
       <c r="C10">
+        <v>-0.2</v>
+      </c>
+      <c r="D10">
         <v>-1.3</v>
-      </c>
-      <c r="D10">
-        <v>-1.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B11" s="3">
-        <v>40131</v>
+        <v>40162</v>
       </c>
       <c r="C11">
+        <v>1.8</v>
+      </c>
+      <c r="D11">
         <v>-0.2</v>
-      </c>
-      <c r="D11">
-        <v>-1.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B12" s="3">
-        <v>40162</v>
+        <v>40192</v>
       </c>
       <c r="C12">
+        <v>2.7</v>
+      </c>
+      <c r="D12">
         <v>1.8</v>
-      </c>
-      <c r="D12">
-        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B13" s="3">
-        <v>40192</v>
+        <v>40223</v>
       </c>
       <c r="C13">
+        <v>2.6</v>
+      </c>
+      <c r="D13">
         <v>2.7</v>
-      </c>
-      <c r="D13">
-        <v>1.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B14" s="3">
-        <v>40223</v>
+        <v>40254</v>
       </c>
       <c r="C14">
+        <v>2.1</v>
+      </c>
+      <c r="D14">
         <v>2.6</v>
-      </c>
-      <c r="D14">
-        <v>2.7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B15" s="3">
-        <v>40254</v>
+        <v>40282</v>
       </c>
       <c r="C15">
+        <v>2.3</v>
+      </c>
+      <c r="D15">
         <v>2.1</v>
-      </c>
-      <c r="D15">
-        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B16" s="3">
-        <v>40282</v>
+        <v>40313</v>
       </c>
       <c r="C16">
+        <v>2.2</v>
+      </c>
+      <c r="D16">
         <v>2.3</v>
-      </c>
-      <c r="D16">
-        <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B17" s="3">
-        <v>40313</v>
+        <v>40343</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>2.2</v>
-      </c>
-      <c r="D17">
-        <v>2.3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B18" s="3">
-        <v>40343</v>
+        <v>40374</v>
       </c>
       <c r="C18">
+        <v>1.1</v>
+      </c>
+      <c r="D18">
         <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2.2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B19" s="3">
-        <v>40374</v>
+        <v>40404</v>
       </c>
       <c r="C19">
+        <v>1.2</v>
+      </c>
+      <c r="D19">
         <v>1.1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B20" s="3">
-        <v>40404</v>
+        <v>40435</v>
       </c>
       <c r="C20">
+        <v>1.1</v>
+      </c>
+      <c r="D20">
         <v>1.2</v>
-      </c>
-      <c r="D20">
-        <v>1.1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B21" s="3">
-        <v>40435</v>
+        <v>40466</v>
       </c>
       <c r="C21">
         <v>1.1</v>
       </c>
       <c r="D21">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B22" s="3">
-        <v>40466</v>
+        <v>40496</v>
       </c>
       <c r="C22">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="D22">
         <v>1.1</v>
@@ -705,122 +705,122 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B23" s="3">
-        <v>40496</v>
+        <v>40527</v>
       </c>
       <c r="C23">
+        <v>1.1</v>
+      </c>
+      <c r="D23">
         <v>1.2</v>
-      </c>
-      <c r="D23">
-        <v>1.1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B24" s="3">
-        <v>40527</v>
+        <v>40557</v>
       </c>
       <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
         <v>1.1</v>
-      </c>
-      <c r="D24">
-        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B25" s="3">
-        <v>40557</v>
+        <v>40588</v>
       </c>
       <c r="C25">
+        <v>1.6</v>
+      </c>
+      <c r="D25">
         <v>1.5</v>
-      </c>
-      <c r="D25">
-        <v>1.1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B26" s="3">
-        <v>40588</v>
+        <v>40619</v>
       </c>
       <c r="C26">
+        <v>2.1</v>
+      </c>
+      <c r="D26">
         <v>1.6</v>
-      </c>
-      <c r="D26">
-        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B27" s="3">
-        <v>40619</v>
+        <v>40647</v>
       </c>
       <c r="C27">
+        <v>2.7</v>
+      </c>
+      <c r="D27">
         <v>2.1</v>
-      </c>
-      <c r="D27">
-        <v>1.6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B28" s="3">
-        <v>40647</v>
+        <v>40678</v>
       </c>
       <c r="C28">
+        <v>3.2</v>
+      </c>
+      <c r="D28">
         <v>2.7</v>
-      </c>
-      <c r="D28">
-        <v>2.1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B29" s="3">
-        <v>40678</v>
+        <v>40708</v>
       </c>
       <c r="C29">
+        <v>3.6</v>
+      </c>
+      <c r="D29">
         <v>3.2</v>
-      </c>
-      <c r="D29">
-        <v>2.7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B30" s="3">
-        <v>40708</v>
+        <v>40739</v>
       </c>
       <c r="C30">
         <v>3.6</v>
       </c>
       <c r="D30">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B31" s="3">
-        <v>40739</v>
+        <v>40769</v>
       </c>
       <c r="C31">
         <v>3.6</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B32" s="3">
-        <v>40769</v>
+        <v>40800</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D32">
         <v>3.6</v>
@@ -845,97 +845,97 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B33" s="3">
-        <v>40800</v>
+        <v>40831</v>
       </c>
       <c r="C33">
+        <v>3.9</v>
+      </c>
+      <c r="D33">
         <v>3.8</v>
-      </c>
-      <c r="D33">
-        <v>3.6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B34" s="3">
-        <v>40831</v>
+        <v>40861</v>
       </c>
       <c r="C34">
+        <v>3.5</v>
+      </c>
+      <c r="D34">
         <v>3.9</v>
-      </c>
-      <c r="D34">
-        <v>3.8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B35" s="3">
-        <v>40861</v>
+        <v>40892</v>
       </c>
       <c r="C35">
+        <v>3.4</v>
+      </c>
+      <c r="D35">
         <v>3.5</v>
-      </c>
-      <c r="D35">
-        <v>3.9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B36" s="3">
-        <v>40892</v>
+        <v>40922</v>
       </c>
       <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
         <v>3.4</v>
-      </c>
-      <c r="D36">
-        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B37" s="3">
-        <v>40922</v>
+        <v>40953</v>
       </c>
       <c r="C37">
+        <v>2.9</v>
+      </c>
+      <c r="D37">
         <v>3</v>
-      </c>
-      <c r="D37">
-        <v>3.4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B38" s="3">
-        <v>40953</v>
+        <v>40984</v>
       </c>
       <c r="C38">
         <v>2.9</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B39" s="3">
-        <v>40984</v>
+        <v>41013</v>
       </c>
       <c r="C39">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D39">
         <v>2.9</v>
@@ -943,55 +943,55 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B40" s="3">
-        <v>41013</v>
+        <v>41044</v>
       </c>
       <c r="C40">
+        <v>2.3</v>
+      </c>
+      <c r="D40">
         <v>2.7</v>
-      </c>
-      <c r="D40">
-        <v>2.9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B41" s="3">
-        <v>41044</v>
+        <v>41074</v>
       </c>
       <c r="C41">
+        <v>1.7</v>
+      </c>
+      <c r="D41">
         <v>2.3</v>
-      </c>
-      <c r="D41">
-        <v>2.7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B42" s="3">
-        <v>41074</v>
+        <v>41105</v>
       </c>
       <c r="C42">
         <v>1.7</v>
       </c>
       <c r="D42">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B43" s="3">
-        <v>41105</v>
+        <v>41135</v>
       </c>
       <c r="C43">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D43">
         <v>1.7</v>
@@ -999,335 +999,335 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B44" s="3">
-        <v>41135</v>
+        <v>41166</v>
       </c>
       <c r="C44">
+        <v>1.7</v>
+      </c>
+      <c r="D44">
         <v>1.4</v>
-      </c>
-      <c r="D44">
-        <v>1.7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B45" s="3">
-        <v>41166</v>
+        <v>41197</v>
       </c>
       <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
         <v>1.7</v>
-      </c>
-      <c r="D45">
-        <v>1.4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B46" s="3">
-        <v>41197</v>
+        <v>41227</v>
       </c>
       <c r="C46">
+        <v>2.2</v>
+      </c>
+      <c r="D46">
         <v>2</v>
-      </c>
-      <c r="D46">
-        <v>1.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B47" s="3">
-        <v>41227</v>
+        <v>41258</v>
       </c>
       <c r="C47">
+        <v>1.8</v>
+      </c>
+      <c r="D47">
         <v>2.2</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B48" s="3">
-        <v>41258</v>
+        <v>41288</v>
       </c>
       <c r="C48">
+        <v>1.7</v>
+      </c>
+      <c r="D48">
         <v>1.8</v>
-      </c>
-      <c r="D48">
-        <v>2.2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B49" s="3">
-        <v>41288</v>
+        <v>41319</v>
       </c>
       <c r="C49">
+        <v>1.6</v>
+      </c>
+      <c r="D49">
         <v>1.7</v>
-      </c>
-      <c r="D49">
-        <v>1.8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B50" s="3">
-        <v>41319</v>
+        <v>41350</v>
       </c>
       <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>1.6</v>
-      </c>
-      <c r="D50">
-        <v>1.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B51" s="3">
-        <v>41350</v>
+        <v>41378</v>
       </c>
       <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="D51">
         <v>2</v>
-      </c>
-      <c r="D51">
-        <v>1.6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B52" s="3">
-        <v>41378</v>
+        <v>41409</v>
       </c>
       <c r="C52">
+        <v>1.1</v>
+      </c>
+      <c r="D52">
         <v>1.5</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B53" s="3">
-        <v>41409</v>
+        <v>41439</v>
       </c>
       <c r="C53">
+        <v>1.4</v>
+      </c>
+      <c r="D53">
         <v>1.1</v>
-      </c>
-      <c r="D53">
-        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B54" s="3">
-        <v>41439</v>
+        <v>41470</v>
       </c>
       <c r="C54">
+        <v>1.8</v>
+      </c>
+      <c r="D54">
         <v>1.4</v>
-      </c>
-      <c r="D54">
-        <v>1.1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B55" s="3">
-        <v>41470</v>
+        <v>41500</v>
       </c>
       <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
         <v>1.8</v>
-      </c>
-      <c r="D55">
-        <v>1.4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B56" s="3">
-        <v>41500</v>
+        <v>41531</v>
       </c>
       <c r="C56">
+        <v>1.5</v>
+      </c>
+      <c r="D56">
         <v>2</v>
-      </c>
-      <c r="D56">
-        <v>1.8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B57" s="3">
-        <v>41531</v>
+        <v>41562</v>
       </c>
       <c r="C57">
+        <v>1.2</v>
+      </c>
+      <c r="D57">
         <v>1.5</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B58" s="3">
-        <v>41562</v>
+        <v>41592</v>
       </c>
       <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
         <v>1.2</v>
-      </c>
-      <c r="D58">
-        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B59" s="3">
-        <v>41592</v>
+        <v>41623</v>
       </c>
       <c r="C59">
+        <v>1.2</v>
+      </c>
+      <c r="D59">
         <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1.2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B60" s="3">
-        <v>41623</v>
+        <v>41653</v>
       </c>
       <c r="C60">
+        <v>1.5</v>
+      </c>
+      <c r="D60">
         <v>1.2</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B61" s="3">
-        <v>41653</v>
+        <v>41684</v>
       </c>
       <c r="C61">
+        <v>1.6</v>
+      </c>
+      <c r="D61">
         <v>1.5</v>
-      </c>
-      <c r="D61">
-        <v>1.2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B62" s="3">
-        <v>41684</v>
+        <v>41715</v>
       </c>
       <c r="C62">
+        <v>1.1</v>
+      </c>
+      <c r="D62">
         <v>1.6</v>
-      </c>
-      <c r="D62">
-        <v>1.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B63" s="3">
-        <v>41715</v>
+        <v>41743</v>
       </c>
       <c r="C63">
+        <v>1.5</v>
+      </c>
+      <c r="D63">
         <v>1.1</v>
-      </c>
-      <c r="D63">
-        <v>1.6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B64" s="3">
-        <v>41743</v>
+        <v>41774</v>
       </c>
       <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
         <v>1.5</v>
-      </c>
-      <c r="D64">
-        <v>1.1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B65" s="3">
-        <v>41774</v>
+        <v>41804</v>
       </c>
       <c r="C65">
+        <v>2.1</v>
+      </c>
+      <c r="D65">
         <v>2</v>
-      </c>
-      <c r="D65">
-        <v>1.5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B66" s="3">
-        <v>41804</v>
+        <v>41835</v>
       </c>
       <c r="C66">
         <v>2.1</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B67" s="3">
-        <v>41835</v>
+        <v>41865</v>
       </c>
       <c r="C67">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>2.1</v>
@@ -1335,38 +1335,38 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B68" s="3">
-        <v>41865</v>
+        <v>41896</v>
       </c>
       <c r="C68">
+        <v>1.7</v>
+      </c>
+      <c r="D68">
         <v>2</v>
-      </c>
-      <c r="D68">
-        <v>2.1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B69" s="3">
-        <v>41896</v>
+        <v>41927</v>
       </c>
       <c r="C69">
         <v>1.7</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B70" s="3">
-        <v>41927</v>
+        <v>41957</v>
       </c>
       <c r="C70">
         <v>1.7</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B71" s="3">
-        <v>41957</v>
+        <v>41988</v>
       </c>
       <c r="C71">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="D71">
         <v>1.7</v>
@@ -1391,139 +1391,139 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B72" s="3">
-        <v>41988</v>
+        <v>42018</v>
       </c>
       <c r="C72">
+        <v>0.8</v>
+      </c>
+      <c r="D72">
         <v>1.3</v>
-      </c>
-      <c r="D72">
-        <v>1.7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B73" s="3">
-        <v>42018</v>
+        <v>42049</v>
       </c>
       <c r="C73">
+        <v>-0.1</v>
+      </c>
+      <c r="D73">
         <v>0.8</v>
-      </c>
-      <c r="D73">
-        <v>1.3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B74" s="3">
-        <v>42049</v>
+        <v>42080</v>
       </c>
       <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <v>-0.1</v>
-      </c>
-      <c r="D74">
-        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B75" s="3">
-        <v>42080</v>
+        <v>42108</v>
       </c>
       <c r="C75">
+        <v>-0.1</v>
+      </c>
+      <c r="D75">
         <v>0</v>
-      </c>
-      <c r="D75">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B76" s="3">
-        <v>42108</v>
+        <v>42139</v>
       </c>
       <c r="C76">
+        <v>-0.2</v>
+      </c>
+      <c r="D76">
         <v>-0.1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B77" s="3">
-        <v>42139</v>
+        <v>42173</v>
       </c>
       <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>-0.2</v>
-      </c>
-      <c r="D77">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B78" s="3">
-        <v>42173</v>
+        <v>42202</v>
       </c>
       <c r="C78">
+        <v>0.1</v>
+      </c>
+      <c r="D78">
         <v>0</v>
-      </c>
-      <c r="D78">
-        <v>-0.2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B79" s="3">
-        <v>42202</v>
+        <v>42235</v>
       </c>
       <c r="C79">
+        <v>0.2</v>
+      </c>
+      <c r="D79">
         <v>0.1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B80" s="3">
-        <v>42235</v>
+        <v>42263</v>
       </c>
       <c r="C80">
         <v>0.2</v>
       </c>
       <c r="D80">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B81" s="3">
-        <v>42263</v>
+        <v>42292</v>
       </c>
       <c r="C81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0.2</v>
@@ -1531,139 +1531,139 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B82" s="3">
-        <v>42292</v>
+        <v>42325</v>
       </c>
       <c r="C82">
+        <v>0.2</v>
+      </c>
+      <c r="D82">
         <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B83" s="3">
-        <v>42325</v>
+        <v>42353</v>
       </c>
       <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
         <v>0.2</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B84" s="3">
-        <v>42353</v>
+        <v>42389</v>
       </c>
       <c r="C84">
+        <v>0.7</v>
+      </c>
+      <c r="D84">
         <v>0.5</v>
-      </c>
-      <c r="D84">
-        <v>0.2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B85" s="3">
-        <v>42389</v>
+        <v>42419</v>
       </c>
       <c r="C85">
+        <v>1.4</v>
+      </c>
+      <c r="D85">
         <v>0.7</v>
-      </c>
-      <c r="D85">
-        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B86" s="3">
-        <v>42419</v>
+        <v>42445</v>
       </c>
       <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
         <v>1.4</v>
-      </c>
-      <c r="D86">
-        <v>0.7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B87" s="3">
-        <v>42445</v>
+        <v>42474</v>
       </c>
       <c r="C87">
+        <v>0.9</v>
+      </c>
+      <c r="D87">
         <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1.4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B88" s="3">
-        <v>42474</v>
+        <v>42507</v>
       </c>
       <c r="C88">
+        <v>1.1</v>
+      </c>
+      <c r="D88">
         <v>0.9</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B89" s="3">
-        <v>42507</v>
+        <v>42537</v>
       </c>
       <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>1.1</v>
-      </c>
-      <c r="D89">
-        <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B90" s="3">
-        <v>42537</v>
+        <v>42566</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B91" s="3">
-        <v>42566</v>
+        <v>42598</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1671,265 +1671,265 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B92" s="3">
-        <v>42598</v>
+        <v>42629</v>
       </c>
       <c r="C92">
+        <v>1.1</v>
+      </c>
+      <c r="D92">
         <v>0.8</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B93" s="3">
-        <v>42629</v>
+        <v>42661</v>
       </c>
       <c r="C93">
+        <v>1.5</v>
+      </c>
+      <c r="D93">
         <v>1.1</v>
-      </c>
-      <c r="D93">
-        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B94" s="3">
-        <v>42661</v>
+        <v>42691</v>
       </c>
       <c r="C94">
+        <v>1.6</v>
+      </c>
+      <c r="D94">
         <v>1.5</v>
-      </c>
-      <c r="D94">
-        <v>1.1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B95" s="3">
-        <v>42691</v>
+        <v>42719</v>
       </c>
       <c r="C95">
+        <v>1.7</v>
+      </c>
+      <c r="D95">
         <v>1.6</v>
-      </c>
-      <c r="D95">
-        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B96" s="3">
-        <v>42719</v>
+        <v>42753</v>
       </c>
       <c r="C96">
+        <v>2.1</v>
+      </c>
+      <c r="D96">
         <v>1.7</v>
-      </c>
-      <c r="D96">
-        <v>1.6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B97" s="3">
-        <v>42753</v>
+        <v>42781</v>
       </c>
       <c r="C97">
+        <v>2.5</v>
+      </c>
+      <c r="D97">
         <v>2.1</v>
-      </c>
-      <c r="D97">
-        <v>1.7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B98" s="3">
-        <v>42781</v>
+        <v>42809</v>
       </c>
       <c r="C98">
+        <v>2.7</v>
+      </c>
+      <c r="D98">
         <v>2.5</v>
-      </c>
-      <c r="D98">
-        <v>2.1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B99" s="3">
-        <v>42809</v>
+        <v>42839</v>
       </c>
       <c r="C99">
+        <v>2.4</v>
+      </c>
+      <c r="D99">
         <v>2.7</v>
-      </c>
-      <c r="D99">
-        <v>2.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B100" s="3">
-        <v>42839</v>
+        <v>42867</v>
       </c>
       <c r="C100">
+        <v>2.2</v>
+      </c>
+      <c r="D100">
         <v>2.4</v>
-      </c>
-      <c r="D100">
-        <v>2.7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B101" s="3">
-        <v>42867</v>
+        <v>42900</v>
       </c>
       <c r="C101">
+        <v>1.9</v>
+      </c>
+      <c r="D101">
         <v>2.2</v>
-      </c>
-      <c r="D101">
-        <v>2.4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B102" s="3">
-        <v>42900</v>
+        <v>42930</v>
       </c>
       <c r="C102">
+        <v>1.6</v>
+      </c>
+      <c r="D102">
         <v>1.9</v>
-      </c>
-      <c r="D102">
-        <v>2.2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B103" s="3">
-        <v>42930</v>
+        <v>42958</v>
       </c>
       <c r="C103">
+        <v>1.7</v>
+      </c>
+      <c r="D103">
         <v>1.6</v>
-      </c>
-      <c r="D103">
-        <v>1.9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B104" s="3">
-        <v>42958</v>
+        <v>42992</v>
       </c>
       <c r="C104">
+        <v>1.9</v>
+      </c>
+      <c r="D104">
         <v>1.7</v>
-      </c>
-      <c r="D104">
-        <v>1.6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B105" s="3">
-        <v>42992</v>
+        <v>43021</v>
       </c>
       <c r="C105">
+        <v>2.2</v>
+      </c>
+      <c r="D105">
         <v>1.9</v>
-      </c>
-      <c r="D105">
-        <v>1.7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B106" s="3">
-        <v>43021</v>
+        <v>43054</v>
       </c>
       <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
         <v>2.2</v>
-      </c>
-      <c r="D106">
-        <v>1.9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B107" s="3">
-        <v>43054</v>
+        <v>43082</v>
       </c>
       <c r="C107">
+        <v>2.2</v>
+      </c>
+      <c r="D107">
         <v>2</v>
-      </c>
-      <c r="D107">
-        <v>2.2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B108" s="3">
-        <v>43082</v>
+        <v>43112</v>
       </c>
       <c r="C108">
+        <v>2.1</v>
+      </c>
+      <c r="D108">
         <v>2.2</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B109" s="3">
-        <v>43112</v>
+        <v>43145</v>
       </c>
       <c r="C109">
         <v>2.1</v>
       </c>
       <c r="D109">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B110" s="3">
-        <v>43145</v>
+        <v>43172</v>
       </c>
       <c r="C110">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D110">
         <v>2.1</v>
@@ -1937,83 +1937,83 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B111" s="3">
-        <v>43172</v>
+        <v>43201</v>
       </c>
       <c r="C111">
+        <v>2.4</v>
+      </c>
+      <c r="D111">
         <v>2.2</v>
-      </c>
-      <c r="D111">
-        <v>2.1</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B112" s="3">
-        <v>43201</v>
+        <v>43230</v>
       </c>
       <c r="C112">
+        <v>2.5</v>
+      </c>
+      <c r="D112">
         <v>2.4</v>
-      </c>
-      <c r="D112">
-        <v>2.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B113" s="3">
-        <v>43230</v>
+        <v>43263</v>
       </c>
       <c r="C113">
+        <v>2.8</v>
+      </c>
+      <c r="D113">
         <v>2.5</v>
-      </c>
-      <c r="D113">
-        <v>2.4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B114" s="3">
-        <v>43263</v>
+        <v>43293</v>
       </c>
       <c r="C114">
+        <v>2.9</v>
+      </c>
+      <c r="D114">
         <v>2.8</v>
-      </c>
-      <c r="D114">
-        <v>2.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B115" s="3">
-        <v>43293</v>
+        <v>43322</v>
       </c>
       <c r="C115">
         <v>2.9</v>
       </c>
       <c r="D115">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B116" s="3">
-        <v>43322</v>
+        <v>43356</v>
       </c>
       <c r="C116">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D116">
         <v>2.9</v>
@@ -2021,195 +2021,195 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B117" s="3">
-        <v>43356</v>
+        <v>43384</v>
       </c>
       <c r="C117">
+        <v>2.3</v>
+      </c>
+      <c r="D117">
         <v>2.7</v>
-      </c>
-      <c r="D117">
-        <v>2.9</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B118" s="3">
-        <v>43384</v>
+        <v>43418</v>
       </c>
       <c r="C118">
+        <v>2.5</v>
+      </c>
+      <c r="D118">
         <v>2.3</v>
-      </c>
-      <c r="D118">
-        <v>2.7</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B119" s="3">
-        <v>43418</v>
+        <v>43446</v>
       </c>
       <c r="C119">
+        <v>2.2</v>
+      </c>
+      <c r="D119">
         <v>2.5</v>
-      </c>
-      <c r="D119">
-        <v>2.3</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B120" s="3">
-        <v>43446</v>
+        <v>43476</v>
       </c>
       <c r="C120">
+        <v>1.9</v>
+      </c>
+      <c r="D120">
         <v>2.2</v>
-      </c>
-      <c r="D120">
-        <v>2.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B121" s="3">
-        <v>43476</v>
+        <v>43509</v>
       </c>
       <c r="C121">
+        <v>1.6</v>
+      </c>
+      <c r="D121">
         <v>1.9</v>
-      </c>
-      <c r="D121">
-        <v>2.2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B122" s="3">
-        <v>43509</v>
+        <v>43536</v>
       </c>
       <c r="C122">
+        <v>1.5</v>
+      </c>
+      <c r="D122">
         <v>1.6</v>
-      </c>
-      <c r="D122">
-        <v>1.9</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B123" s="3">
-        <v>43536</v>
+        <v>43565</v>
       </c>
       <c r="C123">
+        <v>1.9</v>
+      </c>
+      <c r="D123">
         <v>1.5</v>
-      </c>
-      <c r="D123">
-        <v>1.6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B124" s="3">
-        <v>43565</v>
+        <v>43595</v>
       </c>
       <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
         <v>1.9</v>
-      </c>
-      <c r="D124">
-        <v>1.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B125" s="3">
-        <v>43595</v>
+        <v>43628</v>
       </c>
       <c r="C125">
+        <v>1.8</v>
+      </c>
+      <c r="D125">
         <v>2</v>
-      </c>
-      <c r="D125">
-        <v>1.9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B126" s="3">
-        <v>43628</v>
+        <v>43657</v>
       </c>
       <c r="C126">
+        <v>1.6</v>
+      </c>
+      <c r="D126">
         <v>1.8</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B127" s="3">
-        <v>43657</v>
+        <v>43690</v>
       </c>
       <c r="C127">
+        <v>1.8</v>
+      </c>
+      <c r="D127">
         <v>1.6</v>
-      </c>
-      <c r="D127">
-        <v>1.8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B128" s="3">
-        <v>43690</v>
+        <v>43720</v>
       </c>
       <c r="C128">
+        <v>1.7</v>
+      </c>
+      <c r="D128">
         <v>1.8</v>
-      </c>
-      <c r="D128">
-        <v>1.6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B129" s="3">
-        <v>43720</v>
+        <v>43748</v>
       </c>
       <c r="C129">
         <v>1.7</v>
       </c>
       <c r="D129">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B130" s="3">
-        <v>43748</v>
+        <v>43782</v>
       </c>
       <c r="C130">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D130">
         <v>1.7</v>
@@ -2217,195 +2217,195 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B131" s="3">
-        <v>43782</v>
+        <v>43810</v>
       </c>
       <c r="C131">
+        <v>2.1</v>
+      </c>
+      <c r="D131">
         <v>1.8</v>
-      </c>
-      <c r="D131">
-        <v>1.7</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B132" s="3">
-        <v>43810</v>
+        <v>43844</v>
       </c>
       <c r="C132">
+        <v>2.3</v>
+      </c>
+      <c r="D132">
         <v>2.1</v>
-      </c>
-      <c r="D132">
-        <v>1.8</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B133" s="3">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="C133">
+        <v>2.5</v>
+      </c>
+      <c r="D133">
         <v>2.3</v>
-      </c>
-      <c r="D133">
-        <v>2.1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B134" s="3">
-        <v>43874</v>
+        <v>43901</v>
       </c>
       <c r="C134">
+        <v>2.3</v>
+      </c>
+      <c r="D134">
         <v>2.5</v>
-      </c>
-      <c r="D134">
-        <v>2.3</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B135" s="3">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="C135">
+        <v>1.5</v>
+      </c>
+      <c r="D135">
         <v>2.3</v>
-      </c>
-      <c r="D135">
-        <v>2.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B136" s="3">
-        <v>43931</v>
+        <v>43963</v>
       </c>
       <c r="C136">
+        <v>0.3</v>
+      </c>
+      <c r="D136">
         <v>1.5</v>
-      </c>
-      <c r="D136">
-        <v>2.3</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B137" s="3">
-        <v>43963</v>
+        <v>43992</v>
       </c>
       <c r="C137">
+        <v>0.1</v>
+      </c>
+      <c r="D137">
         <v>0.3</v>
-      </c>
-      <c r="D137">
-        <v>1.5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B138" s="3">
-        <v>43992</v>
+        <v>44026</v>
       </c>
       <c r="C138">
+        <v>0.6</v>
+      </c>
+      <c r="D138">
         <v>0.1</v>
-      </c>
-      <c r="D138">
-        <v>0.3</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B139" s="3">
-        <v>44026</v>
+        <v>44055</v>
       </c>
       <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
         <v>0.6</v>
-      </c>
-      <c r="D139">
-        <v>0.1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B140" s="3">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="C140">
+        <v>1.3</v>
+      </c>
+      <c r="D140">
         <v>1</v>
-      </c>
-      <c r="D140">
-        <v>0.6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B141" s="3">
-        <v>44085</v>
+        <v>44117</v>
       </c>
       <c r="C141">
+        <v>1.4</v>
+      </c>
+      <c r="D141">
         <v>1.3</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B142" s="3">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="C142">
+        <v>1.2</v>
+      </c>
+      <c r="D142">
         <v>1.4</v>
-      </c>
-      <c r="D142">
-        <v>1.3</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B143" s="3">
-        <v>44147</v>
+        <v>44175</v>
       </c>
       <c r="C143">
         <v>1.2</v>
       </c>
       <c r="D143">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B144" s="3">
-        <v>44175</v>
+        <v>44209</v>
       </c>
       <c r="C144">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D144">
         <v>1.2</v>
@@ -2413,27 +2413,27 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B145" s="3">
-        <v>44209</v>
+        <v>44237</v>
       </c>
       <c r="C145">
         <v>1.4</v>
       </c>
       <c r="D145">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B146" s="3">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="C146">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D146">
         <v>1.4</v>
@@ -2441,83 +2441,83 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B147" s="3">
-        <v>44265</v>
+        <v>44299</v>
       </c>
       <c r="C147">
+        <v>2.6</v>
+      </c>
+      <c r="D147">
         <v>1.7</v>
-      </c>
-      <c r="D147">
-        <v>1.4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B148" s="3">
-        <v>44299</v>
+        <v>44328</v>
       </c>
       <c r="C148">
+        <v>4.2</v>
+      </c>
+      <c r="D148">
         <v>2.6</v>
-      </c>
-      <c r="D148">
-        <v>1.7</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B149" s="3">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
         <v>4.2</v>
-      </c>
-      <c r="D149">
-        <v>2.6</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B150" s="3">
-        <v>44357</v>
+        <v>44390</v>
       </c>
       <c r="C150">
+        <v>5.4</v>
+      </c>
+      <c r="D150">
         <v>5</v>
-      </c>
-      <c r="D150">
-        <v>4.2</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B151" s="3">
-        <v>44390</v>
+        <v>44419</v>
       </c>
       <c r="C151">
         <v>5.4</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B152" s="3">
-        <v>44419</v>
+        <v>44453</v>
       </c>
       <c r="C152">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D152">
         <v>5.4</v>
@@ -2525,363 +2525,363 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B153" s="3">
-        <v>44453</v>
+        <v>44482</v>
       </c>
       <c r="C153">
+        <v>5.4</v>
+      </c>
+      <c r="D153">
         <v>5.3</v>
-      </c>
-      <c r="D153">
-        <v>5.4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B154" s="3">
-        <v>44482</v>
+        <v>44510</v>
       </c>
       <c r="C154">
+        <v>6.2</v>
+      </c>
+      <c r="D154">
         <v>5.4</v>
-      </c>
-      <c r="D154">
-        <v>5.3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B155" s="3">
-        <v>44510</v>
+        <v>44540</v>
       </c>
       <c r="C155">
+        <v>6.8</v>
+      </c>
+      <c r="D155">
         <v>6.2</v>
-      </c>
-      <c r="D155">
-        <v>5.4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B156" s="3">
-        <v>44540</v>
+        <v>44573</v>
       </c>
       <c r="C156">
+        <v>7</v>
+      </c>
+      <c r="D156">
         <v>6.8</v>
-      </c>
-      <c r="D156">
-        <v>6.2</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B157" s="3">
-        <v>44573</v>
+        <v>44602</v>
       </c>
       <c r="C157">
+        <v>7.5</v>
+      </c>
+      <c r="D157">
         <v>7</v>
-      </c>
-      <c r="D157">
-        <v>6.8</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B158" s="3">
-        <v>44602</v>
+        <v>44630</v>
       </c>
       <c r="C158">
+        <v>7.9</v>
+      </c>
+      <c r="D158">
         <v>7.5</v>
-      </c>
-      <c r="D158">
-        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B159" s="3">
-        <v>44630</v>
+        <v>44663</v>
       </c>
       <c r="C159">
+        <v>8.5</v>
+      </c>
+      <c r="D159">
         <v>7.9</v>
-      </c>
-      <c r="D159">
-        <v>7.5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B160" s="3">
-        <v>44663</v>
+        <v>44692</v>
       </c>
       <c r="C160">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D160">
         <v>8.5</v>
-      </c>
-      <c r="D160">
-        <v>7.9</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B161" s="3">
-        <v>44692</v>
+        <v>44722</v>
       </c>
       <c r="C161">
+        <v>8.6</v>
+      </c>
+      <c r="D161">
         <v>8.300000000000001</v>
-      </c>
-      <c r="D161">
-        <v>8.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B162" s="3">
-        <v>44722</v>
+        <v>44755</v>
       </c>
       <c r="C162">
+        <v>9.1</v>
+      </c>
+      <c r="D162">
         <v>8.6</v>
-      </c>
-      <c r="D162">
-        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B163" s="3">
-        <v>44755</v>
+        <v>44783</v>
       </c>
       <c r="C163">
+        <v>8.5</v>
+      </c>
+      <c r="D163">
         <v>9.1</v>
-      </c>
-      <c r="D163">
-        <v>8.6</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B164" s="3">
-        <v>44783</v>
+        <v>44817</v>
       </c>
       <c r="C164">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D164">
         <v>8.5</v>
-      </c>
-      <c r="D164">
-        <v>9.1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B165" s="3">
-        <v>44817</v>
+        <v>44847</v>
       </c>
       <c r="C165">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D165">
         <v>8.300000000000001</v>
-      </c>
-      <c r="D165">
-        <v>8.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B166" s="3">
-        <v>44847</v>
+        <v>44875</v>
       </c>
       <c r="C166">
+        <v>7.7</v>
+      </c>
+      <c r="D166">
         <v>8.199999999999999</v>
-      </c>
-      <c r="D166">
-        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B167" s="3">
-        <v>44875</v>
+        <v>44908</v>
       </c>
       <c r="C167">
+        <v>7.1</v>
+      </c>
+      <c r="D167">
         <v>7.7</v>
-      </c>
-      <c r="D167">
-        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B168" s="3">
-        <v>44908</v>
+        <v>44938</v>
       </c>
       <c r="C168">
+        <v>6.5</v>
+      </c>
+      <c r="D168">
         <v>7.1</v>
-      </c>
-      <c r="D168">
-        <v>7.7</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B169" s="3">
-        <v>44938</v>
+        <v>44971</v>
       </c>
       <c r="C169">
+        <v>6.4</v>
+      </c>
+      <c r="D169">
         <v>6.5</v>
-      </c>
-      <c r="D169">
-        <v>7.1</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B170" s="3">
-        <v>44971</v>
+        <v>44999</v>
       </c>
       <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
         <v>6.4</v>
-      </c>
-      <c r="D170">
-        <v>6.5</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B171" s="3">
-        <v>44999</v>
+        <v>45028</v>
       </c>
       <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171">
         <v>6</v>
-      </c>
-      <c r="D171">
-        <v>6.4</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B172" s="3">
-        <v>45028</v>
+        <v>45056</v>
       </c>
       <c r="C172">
+        <v>4.9</v>
+      </c>
+      <c r="D172">
         <v>5</v>
-      </c>
-      <c r="D172">
-        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B173" s="3">
-        <v>45056</v>
+        <v>45090</v>
       </c>
       <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
         <v>4.9</v>
-      </c>
-      <c r="D173">
-        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B174" s="3">
-        <v>45090</v>
+        <v>45119</v>
       </c>
       <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
         <v>4</v>
-      </c>
-      <c r="D174">
-        <v>4.9</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B175" s="3">
-        <v>45119</v>
+        <v>45148</v>
       </c>
       <c r="C175">
+        <v>3.2</v>
+      </c>
+      <c r="D175">
         <v>3</v>
-      </c>
-      <c r="D175">
-        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B176" s="3">
-        <v>45148</v>
+        <v>45182</v>
       </c>
       <c r="C176">
+        <v>3.7</v>
+      </c>
+      <c r="D176">
         <v>3.2</v>
-      </c>
-      <c r="D176">
-        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B177" s="3">
-        <v>45182</v>
+        <v>45211</v>
       </c>
       <c r="C177">
         <v>3.7</v>
       </c>
       <c r="D177">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B178" s="3">
-        <v>45211</v>
+        <v>45244</v>
       </c>
       <c r="C178">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D178">
         <v>3.7</v>
@@ -2889,307 +2889,307 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B179" s="3">
-        <v>45244</v>
+        <v>45272</v>
       </c>
       <c r="C179">
+        <v>3.1</v>
+      </c>
+      <c r="D179">
         <v>3.2</v>
-      </c>
-      <c r="D179">
-        <v>3.7</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B180" s="3">
-        <v>45272</v>
+        <v>45302</v>
       </c>
       <c r="C180">
+        <v>3.4</v>
+      </c>
+      <c r="D180">
         <v>3.1</v>
-      </c>
-      <c r="D180">
-        <v>3.2</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B181" s="3">
-        <v>45302</v>
+        <v>45335</v>
       </c>
       <c r="C181">
+        <v>3.1</v>
+      </c>
+      <c r="D181">
         <v>3.4</v>
-      </c>
-      <c r="D181">
-        <v>3.1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B182" s="3">
-        <v>45335</v>
+        <v>45363</v>
       </c>
       <c r="C182">
+        <v>3.2</v>
+      </c>
+      <c r="D182">
         <v>3.1</v>
-      </c>
-      <c r="D182">
-        <v>3.4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B183" s="3">
-        <v>45363</v>
+        <v>45392</v>
       </c>
       <c r="C183">
+        <v>3.5</v>
+      </c>
+      <c r="D183">
         <v>3.2</v>
-      </c>
-      <c r="D183">
-        <v>3.1</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B184" s="3">
-        <v>45392</v>
+        <v>45427</v>
       </c>
       <c r="C184">
+        <v>3.4</v>
+      </c>
+      <c r="D184">
         <v>3.5</v>
-      </c>
-      <c r="D184">
-        <v>3.2</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B185" s="3">
-        <v>45427</v>
+        <v>45455</v>
       </c>
       <c r="C185">
+        <v>3.3</v>
+      </c>
+      <c r="D185">
         <v>3.4</v>
-      </c>
-      <c r="D185">
-        <v>3.5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B186" s="3">
-        <v>45455</v>
+        <v>45484</v>
       </c>
       <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
         <v>3.3</v>
-      </c>
-      <c r="D186">
-        <v>3.4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B187" s="3">
-        <v>45484</v>
+        <v>45518</v>
       </c>
       <c r="C187">
+        <v>2.9</v>
+      </c>
+      <c r="D187">
         <v>3</v>
-      </c>
-      <c r="D187">
-        <v>3.3</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B188" s="3">
-        <v>45518</v>
+        <v>45546</v>
       </c>
       <c r="C188">
+        <v>2.5</v>
+      </c>
+      <c r="D188">
         <v>2.9</v>
-      </c>
-      <c r="D188">
-        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B189" s="3">
-        <v>45546</v>
+        <v>45575</v>
       </c>
       <c r="C189">
+        <v>2.4</v>
+      </c>
+      <c r="D189">
         <v>2.5</v>
-      </c>
-      <c r="D189">
-        <v>2.9</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B190" s="3">
-        <v>45575</v>
+        <v>45609</v>
       </c>
       <c r="C190">
+        <v>2.6</v>
+      </c>
+      <c r="D190">
         <v>2.4</v>
-      </c>
-      <c r="D190">
-        <v>2.5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B191" s="3">
-        <v>45609</v>
+        <v>45637</v>
       </c>
       <c r="C191">
+        <v>2.7</v>
+      </c>
+      <c r="D191">
         <v>2.6</v>
-      </c>
-      <c r="D191">
-        <v>2.4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B192" s="3">
-        <v>45637</v>
+        <v>45672</v>
       </c>
       <c r="C192">
+        <v>2.9</v>
+      </c>
+      <c r="D192">
         <v>2.7</v>
-      </c>
-      <c r="D192">
-        <v>2.6</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B193" s="3">
-        <v>45672</v>
+        <v>45700</v>
       </c>
       <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
         <v>2.9</v>
-      </c>
-      <c r="D193">
-        <v>2.7</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B194" s="3">
-        <v>45700</v>
+        <v>45728</v>
       </c>
       <c r="C194">
+        <v>2.8</v>
+      </c>
+      <c r="D194">
         <v>3</v>
-      </c>
-      <c r="D194">
-        <v>2.9</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B195" s="3">
-        <v>45728</v>
+        <v>45757</v>
       </c>
       <c r="C195">
+        <v>2.4</v>
+      </c>
+      <c r="D195">
         <v>2.8</v>
-      </c>
-      <c r="D195">
-        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B196" s="3">
-        <v>45757</v>
+        <v>45790</v>
       </c>
       <c r="C196">
+        <v>2.3</v>
+      </c>
+      <c r="D196">
         <v>2.4</v>
-      </c>
-      <c r="D196">
-        <v>2.8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B197" s="3">
-        <v>45790</v>
+        <v>45819</v>
       </c>
       <c r="C197">
+        <v>2.4</v>
+      </c>
+      <c r="D197">
         <v>2.3</v>
-      </c>
-      <c r="D197">
-        <v>2.4</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B198" s="3">
-        <v>45819</v>
+        <v>45853</v>
       </c>
       <c r="C198">
+        <v>2.7</v>
+      </c>
+      <c r="D198">
         <v>2.4</v>
-      </c>
-      <c r="D198">
-        <v>2.3</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B199" s="3">
-        <v>45853</v>
+        <v>45881</v>
       </c>
       <c r="C199">
         <v>2.7</v>
       </c>
       <c r="D199">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B200" s="3">
-        <v>45881</v>
+        <v>45911</v>
       </c>
       <c r="C200">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D200">
         <v>2.7</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B201" s="3">
-        <v>45911</v>
+        <v>45945</v>
       </c>
       <c r="D201">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
